--- a/output/Dataset_1/isolated_observations.xlsx
+++ b/output/Dataset_1/isolated_observations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,87 +457,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9411</v>
+        <v>2580</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazona_amazonica</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9414</v>
+        <v>2606</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4797</v>
+        <v>4999</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11317</v>
+        <v>4958</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2192</v>
+        <v>4787</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pitangus_sulphuratus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2578</v>
+        <v>4797</v>
       </c>
       <c r="D4" t="n">
-        <v>565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4810</v>
+        <v>2192</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Pitangus_sulphuratus</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11380</v>
+        <v>2578</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2580</v>
+        <v>4810</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2619</v>
+        <v>4787</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4787</v>
+        <v>11329</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -545,63 +545,63 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11329</v>
+        <v>4775</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3712</v>
+        <v>4958</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4787</v>
+        <v>4999</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7401</v>
+        <v>11425</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4958</v>
+        <v>11362</v>
       </c>
       <c r="D9" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9017</v>
+        <v>8865</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9838</v>
+        <v>5069</v>
       </c>
       <c r="D10" t="n">
-        <v>257</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8806</v>
+        <v>5069</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -609,15 +609,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8699</v>
+        <v>8865</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6467</v>
+        <v>3007</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -625,23 +625,23 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6511</v>
+        <v>3023</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8699</v>
+        <v>3023</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8806</v>
+        <v>5338</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,119 +649,119 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11469</v>
+        <v>2601</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4774</v>
+        <v>2619</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6449</v>
+        <v>4774</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6437</v>
+        <v>3775</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9045</v>
+        <v>7401</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9089</v>
+        <v>4958</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6328</v>
+        <v>9017</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6375</v>
+        <v>2649</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6375</v>
+        <v>3014</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8729</v>
+        <v>6449</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6523</v>
+        <v>6449</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6525</v>
+        <v>3014</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5388</v>
+        <v>11469</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3011</v>
+        <v>11444</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5411</v>
+        <v>5443</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -769,63 +769,63 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5388</v>
+        <v>6437</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11451</v>
+        <v>2649</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11444</v>
+        <v>9821</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11444</v>
+        <v>3003</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11451</v>
+        <v>6488</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>231</v>
+        <v>6986</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6188</v>
+        <v>9899</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9845</v>
+        <v>9899</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -833,63 +833,63 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9809</v>
+        <v>6986</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6188</v>
+        <v>2578</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Pitangus_sulphuratus</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>231</v>
+        <v>2640</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1876</v>
+        <v>11432</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1836</v>
+        <v>11452</v>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5858</v>
+        <v>9887</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6039</v>
+        <v>10558</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7820</v>
+        <v>6714</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -897,31 +897,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>163</v>
+        <v>6713</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8548</v>
+        <v>6713</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8501</v>
+        <v>7676</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>163</v>
+        <v>7676</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7820</v>
+        <v>210</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6986</v>
+        <v>10192</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -945,231 +945,231 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10745</v>
+        <v>10490</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9390</v>
+        <v>210</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amazona_amazonica</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9392</v>
+        <v>7676</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2601</v>
+        <v>10166</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1862</v>
+        <v>10192</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>125</v>
+        <v>11452</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>144</v>
+        <v>11432</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8501</v>
+        <v>2640</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Pitangus_sulphuratus</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8548</v>
+        <v>2578</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9392</v>
+        <v>10923</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amazona_amazonica</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9390</v>
+        <v>10915</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9386</v>
+        <v>10915</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Amazona_amazonica</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9392</v>
+        <v>10923</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10745</v>
+        <v>2420</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Ortalis_ruficauda</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9873</v>
+        <v>2426</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9873</v>
+        <v>11179</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8677</v>
+        <v>5250</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>847</v>
+        <v>5721</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>936</v>
+        <v>5807</v>
       </c>
       <c r="D41" t="n">
-        <v>174</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2656</v>
+        <v>2405</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4853</v>
+        <v>11179</v>
       </c>
       <c r="D42" t="n">
-        <v>282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6714</v>
+        <v>2993</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>167</v>
+        <v>9141</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1911</v>
+        <v>2888</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2601</v>
+        <v>2402</v>
       </c>
       <c r="D44" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5818</v>
+        <v>5807</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5749</v>
+        <v>5706</v>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7832</v>
+        <v>2402</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7862</v>
+        <v>2888</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1177,151 +1177,151 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9887</v>
+        <v>2426</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Ortalis_ruficauda</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10711</v>
+        <v>2420</v>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11432</v>
+        <v>5195</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Alouatta_sp</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2318</v>
+        <v>2711</v>
       </c>
       <c r="D48" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10915</v>
+        <v>2406</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Ortalis_ruficauda</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10923</v>
+        <v>2426</v>
       </c>
       <c r="D49" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10923</v>
+        <v>5725</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10915</v>
+        <v>5799</v>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7627</v>
+        <v>1702</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2147</v>
+        <v>1709</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2578</v>
+        <v>10900</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pitangus_sulphuratus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2640</v>
+        <v>10019</v>
       </c>
       <c r="D52" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1984</v>
+        <v>247</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1911</v>
+        <v>482</v>
       </c>
       <c r="D53" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7787</v>
+        <v>1709</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8007</v>
+        <v>1702</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11445</v>
+        <v>7311</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>11452</v>
+        <v>5725</v>
       </c>
       <c r="D55" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7643</v>
+        <v>6694</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1329,15 +1329,15 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>195</v>
+        <v>8144</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10519</v>
+        <v>9913</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1345,31 +1345,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9053</v>
+        <v>9922</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>195</v>
+        <v>9922</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7643</v>
+        <v>9913</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9899</v>
+        <v>10028</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1377,287 +1377,287 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9942</v>
+        <v>9922</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10900</v>
+        <v>7317</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9899</v>
+        <v>7311</v>
       </c>
       <c r="D60" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2640</v>
+        <v>1908</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pitangus_sulphuratus</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2578</v>
+        <v>1782</v>
       </c>
       <c r="D61" t="n">
-        <v>116</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11452</v>
+        <v>932</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Troglodytes_aedon</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>11445</v>
+        <v>484</v>
       </c>
       <c r="D62" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3003</v>
+        <v>4925</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5826</v>
+        <v>2656</v>
       </c>
       <c r="D63" t="n">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9862</v>
+        <v>1782</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>10900</v>
+        <v>1694</v>
       </c>
       <c r="D64" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>881</v>
+        <v>1694</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1015</v>
+        <v>1782</v>
       </c>
       <c r="D65" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5984</v>
+        <v>4415</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dendropsophus_microcephalus</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3003</v>
+        <v>2769</v>
       </c>
       <c r="D66" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4442</v>
+        <v>547</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2684</v>
+        <v>950</v>
       </c>
       <c r="D67" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5706</v>
+        <v>1976</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5735</v>
+        <v>1694</v>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2684</v>
+        <v>1670</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2740</v>
+        <v>1676</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2427</v>
+        <v>6252</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ortalis_ruficauda</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2426</v>
+        <v>7847</v>
       </c>
       <c r="D70" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4559</v>
+        <v>2735</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>379</v>
+        <v>4415</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6252</v>
+        <v>1676</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7771</v>
+        <v>1670</v>
       </c>
       <c r="D72" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1976</v>
+        <v>9929</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1908</v>
+        <v>10436</v>
       </c>
       <c r="D73" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5195</v>
+        <v>7325</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9141</v>
+        <v>6536</v>
       </c>
       <c r="D74" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2889</v>
+        <v>1973</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2878</v>
+        <v>1687</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5725</v>
+        <v>1687</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8534</v>
+        <v>1665</v>
       </c>
       <c r="D76" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1908</v>
+        <v>1665</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1665,234 +1665,234 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1973</v>
+        <v>1687</v>
       </c>
       <c r="D77" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2402</v>
+        <v>10436</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2888</v>
+        <v>8677</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5807</v>
+        <v>2427</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Ortalis_ruficauda</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5788</v>
+        <v>2414</v>
       </c>
       <c r="D79" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2426</v>
+        <v>8218</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ortalis_ruficauda</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2427</v>
+        <v>5828</v>
       </c>
       <c r="D80" t="n">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2888</v>
+        <v>2398</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2402</v>
+        <v>1790</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>754</v>
+        <v>8677</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>466</v>
+        <v>10745</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1973</v>
+        <v>6248</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1908</v>
+        <v>62</v>
       </c>
       <c r="D83" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9141</v>
+        <v>1790</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5195</v>
+        <v>2398</v>
       </c>
       <c r="D84" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7999</v>
+        <v>2656</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6335</v>
+        <v>4620</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3724</v>
+        <v>10745</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3693</v>
+        <v>7100</v>
       </c>
       <c r="D86" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3693</v>
+        <v>170</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3724</v>
+        <v>223</v>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10935</v>
+        <v>9386</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Amazona_amazonica</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>10931</v>
+        <v>9392</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10931</v>
+        <v>4483</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>10935</v>
+        <v>3845</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>853</v>
+        <v>2307</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1528</v>
+        <v>2318</v>
       </c>
       <c r="D90" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4483</v>
+        <v>2318</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3693</v>
+        <v>2307</v>
       </c>
       <c r="D91" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -1905,159 +1905,159 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6221</v>
+        <v>216</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2406</v>
+        <v>3845</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ortalis_ruficauda</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2426</v>
+        <v>3807</v>
       </c>
       <c r="D93" t="n">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5721</v>
+        <v>10162</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6536</v>
+        <v>10361</v>
       </c>
       <c r="D94" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2405</v>
+        <v>2391</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2882</v>
+        <v>1790</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2993</v>
+        <v>10566</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2996</v>
+        <v>10846</v>
       </c>
       <c r="D96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2996</v>
+        <v>3724</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Alouatta_sp</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2711</v>
+        <v>3996</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4223</v>
+        <v>5685</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4483</v>
+        <v>7732</v>
       </c>
       <c r="D98" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10895</v>
+        <v>8501</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9034</v>
+        <v>6525</v>
       </c>
       <c r="D99" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>7325</v>
+        <v>9392</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Amazona_amazonica</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5721</v>
+        <v>9386</v>
       </c>
       <c r="D100" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>676</v>
+        <v>4620</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>436</v>
+        <v>2656</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9995</v>
+        <v>10098</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2065,95 +2065,95 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>10882</v>
+        <v>10566</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9065</v>
+        <v>6710</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9995</v>
+        <v>5632</v>
       </c>
       <c r="D103" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4241</v>
+        <v>9845</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4508</v>
+        <v>6773</v>
       </c>
       <c r="D104" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2629</v>
+        <v>2556</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pitangus_sulphuratus</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2635</v>
+        <v>2551</v>
       </c>
       <c r="D105" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9916</v>
+        <v>8026</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9581</v>
+        <v>7968</v>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1484</v>
+        <v>7968</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>452</v>
+        <v>6390</v>
       </c>
       <c r="D107" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10911</v>
+        <v>9862</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9130</v>
+        <v>7078</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
@@ -2169,15 +2169,15 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>353</v>
+        <v>6390</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>666</v>
+        <v>7968</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -2185,31 +2185,31 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9130</v>
+        <v>9390</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Amazona_amazonica</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10911</v>
+        <v>9392</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>411</v>
+        <v>44</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>353</v>
+        <v>6163</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2217,231 +2217,231 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4508</v>
+        <v>5969</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>4273</v>
+        <v>5790</v>
       </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2635</v>
+        <v>5152</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Pitangus_sulphuratus</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2629</v>
+        <v>2762</v>
       </c>
       <c r="D113" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8109</v>
+        <v>10866</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>56</v>
+        <v>9862</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9427</v>
+        <v>2684</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>9462</v>
+        <v>2740</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3753</v>
+        <v>2762</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Dendroplex_picus</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4280</v>
+        <v>2718</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9462</v>
+        <v>2740</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>9427</v>
+        <v>2684</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1613</v>
+        <v>4241</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1562</v>
+        <v>2740</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8121</v>
+        <v>3753</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>8109</v>
+        <v>4241</v>
       </c>
       <c r="D119" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>7961</v>
+        <v>668</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7649</v>
+        <v>549</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>680</v>
+        <v>2390</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1556</v>
+        <v>2554</v>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5152</v>
+        <v>6294</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4620</v>
+        <v>5598</v>
       </c>
       <c r="D122" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10866</v>
+        <v>2629</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Pitangus_sulphuratus</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>9656</v>
+        <v>2635</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>446</v>
+        <v>2635</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Pitangus_sulphuratus</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>680</v>
+        <v>2570</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2420</v>
+        <v>2570</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ortalis_ruficauda</t>
+          <t>Pitangus_sulphuratus</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2366</v>
+        <v>2635</v>
       </c>
       <c r="D125" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5556</v>
+        <v>8121</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7868</v>
+        <v>35</v>
       </c>
       <c r="D126" t="n">
         <v>1</v>
@@ -2457,23 +2457,23 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9121</v>
+        <v>835</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>10041</v>
+        <v>680</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2481,39 +2481,39 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>446</v>
+        <v>835</v>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>4613</v>
+        <v>685</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7888</v>
+        <v>755</v>
       </c>
       <c r="D129" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1687</v>
+        <v>10816</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1709</v>
+        <v>10785</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3604</v>
+        <v>3410</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2529,71 +2529,71 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3567</v>
+        <v>4508</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1709</v>
+        <v>528</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1687</v>
+        <v>1484</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3410</v>
+        <v>9065</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3604</v>
+        <v>9508</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1665</v>
+        <v>4508</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1709</v>
+        <v>3410</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4127</v>
+        <v>269</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3410</v>
+        <v>1528</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -2601,255 +2601,255 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4620</v>
+        <v>10911</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Dendroplex_picus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5152</v>
+        <v>9607</v>
       </c>
       <c r="D136" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2366</v>
+        <v>446</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ortalis_ruficauda</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2412</v>
+        <v>1519</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1577</v>
+        <v>4273</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>982</v>
+        <v>4280</v>
       </c>
       <c r="D138" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>7970</v>
+        <v>3495</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>4613</v>
+        <v>3263</v>
       </c>
       <c r="D139" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>7100</v>
+        <v>4511</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>10795</v>
+        <v>4191</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10126</v>
+        <v>282</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>10069</v>
+        <v>649</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10115</v>
+        <v>273</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10270</v>
+        <v>282</v>
       </c>
       <c r="D142" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2612</v>
+        <v>163</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pitangus_sulphuratus</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2635</v>
+        <v>7820</v>
       </c>
       <c r="D143" t="n">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10192</v>
+        <v>8548</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Leptodactylus_fragilis</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>9913</v>
+        <v>8501</v>
       </c>
       <c r="D144" t="n">
-        <v>4</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>7317</v>
+        <v>7820</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6588</v>
+        <v>163</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9913</v>
+        <v>1876</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>10192</v>
+        <v>1862</v>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>926</v>
+        <v>5931</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>52</v>
+        <v>5818</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6588</v>
+        <v>1984</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7317</v>
+        <v>1876</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9922</v>
+        <v>5559</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>9913</v>
+        <v>7787</v>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>225</v>
+        <v>5818</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>376</v>
+        <v>5863</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>7311</v>
+        <v>7787</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6586</v>
+        <v>5559</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -2857,159 +2857,159 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10028</v>
+        <v>2612</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Pitangus_sulphuratus</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>10011</v>
+        <v>2570</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>139</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1540</v>
+        <v>4223</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>247</v>
+        <v>3322</v>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2122</v>
+        <v>10895</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>2014</v>
+        <v>10342</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>835</v>
+        <v>11441</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>823</v>
+        <v>11445</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2014</v>
+        <v>3322</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Crypturellus_soui</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2122</v>
+        <v>4223</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>823</v>
+        <v>10342</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>835</v>
+        <v>10895</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>3263</v>
+        <v>5568</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3322</v>
+        <v>4636</v>
       </c>
       <c r="D158" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>6579</v>
+        <v>5753</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Leptodactylus_fragilis</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7311</v>
+        <v>6000</v>
       </c>
       <c r="D159" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>932</v>
+        <v>7402</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Patagioenas_cayennensis</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>823</v>
+        <v>5036</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2398</v>
+        <v>5984</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1694</v>
+        <v>5965</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3017,39 +3017,39 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>922</v>
+        <v>4636</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1039</v>
+        <v>5568</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1039</v>
+        <v>5890</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Boana_platanera</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>922</v>
+        <v>5858</v>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2391</v>
+        <v>1874</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -3057,95 +3057,95 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1782</v>
+        <v>1880</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1790</v>
+        <v>5858</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Dendropsophus_microcephalus</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2551</v>
+        <v>5890</v>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>7402</v>
+        <v>10143</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Patagioenas_cayennensis</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2909</v>
+        <v>10285</v>
       </c>
       <c r="D166" t="n">
-        <v>282</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10162</v>
+        <v>1911</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Crotophaga_ani</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>10361</v>
+        <v>1874</v>
       </c>
       <c r="D167" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>3322</v>
+        <v>6408</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Crypturellus_soui</t>
+          <t>Leptodactylus_fuscus</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3263</v>
+        <v>7995</v>
       </c>
       <c r="D168" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10342</v>
+        <v>1577</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Nyctidromus_albicollis</t>
+          <t>Boana_platanera</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>10278</v>
+        <v>273</v>
       </c>
       <c r="D169" t="n">
-        <v>3</v>
+        <v>223</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2144</v>
+        <v>7942</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4665</v>
+        <v>6697</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10278</v>
+        <v>10150</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -3169,298 +3169,42 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>10166</v>
+        <v>10519</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>4665</v>
+        <v>10140</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Leptodactylus_fuscus</t>
+          <t>Nyctidromus_albicollis</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2144</v>
+        <v>9053</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2556</v>
+        <v>11445</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Crotophaga_ani</t>
+          <t>Troglodytes_aedon</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1702</v>
+        <v>11441</v>
       </c>
       <c r="D173" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>6710</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Leptodactylus_fuscus</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>2173</v>
-      </c>
-      <c r="D174" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>6843</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Nyctidromus_albicollis</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>6797</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>11441</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Troglodytes_aedon</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>11452</v>
-      </c>
-      <c r="D176" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>4652</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Leptodactylus_fuscus</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>219</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>1874</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Crotophaga_ani</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>1810</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>219</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Leptodactylus_fuscus</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>4652</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>10378</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Nyctidromus_albicollis</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>9098</v>
-      </c>
-      <c r="D180" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>5632</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Leptodactylus_fuscus</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>35</v>
-      </c>
-      <c r="D181" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>10297</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Nyctidromus_albicollis</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>10364</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>1023</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Boana_platanera</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>899</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>10364</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Nyctidromus_albicollis</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>10297</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>899</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Boana_platanera</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>1023</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>10356</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Nyctidromus_albicollis</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>10364</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>2390</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Crotophaga_ani</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>1874</v>
-      </c>
-      <c r="D187" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>2064</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Leptodactylus_fuscus</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2570</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Pitangus_sulphuratus</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D189" t="n">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
